--- a/static/data/python/sample exams/Browns Ferry/Browns_Ferry_exam_sample_024.xlsx
+++ b/static/data/python/sample exams/Browns Ferry/Browns_Ferry_exam_sample_024.xlsx
@@ -31,202 +31,202 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.1.1) CONDUCT OF OPERATIONS Knowledge of conduct of operations requirements (CFR: 41.10 / 43.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295005AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
-  </si>
-  <si>
-    <t>(295031EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.8 to 41.10) Adequate core cooling</t>
-  </si>
-  <si>
     <t>(295021AA2.05) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor vessel metal temperature</t>
   </si>
   <si>
-    <t>(295003AK2.04) Knowledge of the relationship between the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER and the following systems or components: (CFR: 41.7 / 45.8) AC electrical loads</t>
-  </si>
-  <si>
-    <t>(295026EA1.07) Ability to operate and/or monitor the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.7 / 45.6) HPCS</t>
-  </si>
-  <si>
-    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295019AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.5 / 45.6) Standby air compressor operation</t>
-  </si>
-  <si>
-    <t>(295016AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Abandonment criteria</t>
-  </si>
-  <si>
-    <t>(295006AA2.04) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
+  </si>
+  <si>
+    <t>(295019AK2.03) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Feedwater system</t>
+  </si>
+  <si>
+    <t>(295018AA1.08) Ability to operate and/or monitor the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.7 / 45.6) Plant operations</t>
+  </si>
+  <si>
+    <t>(600000AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.5 / 41.10 / 45.6 / 45.13) Steps called out in the site fire protection plant, fire protection system manual, and fire zone manual</t>
+  </si>
+  <si>
+    <t>(295003AK1.07) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER:(CFR: 41.8 to 41.10) Load sequencing</t>
+  </si>
+  <si>
+    <t>(295006AA2.05) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Whether a reactor SCRAM has occurred</t>
+  </si>
+  <si>
+    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
   </si>
   <si>
     <t>(295037EK2.22) Knowledge of the relationship between the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN and the following systems or components: (CFR: 41.7 / 41.8 / 45.8) RHR/LPCI system</t>
   </si>
   <si>
-    <t>(295004AA1.04) Ability to operate and/or monitor the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.7 / 45.6) DC electrical loads</t>
-  </si>
-  <si>
-    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295001AK3.08) Knowledge of the reasons for the following responses or actions as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.5 / 41.6) </t>
-  </si>
-  <si>
-    <t>(295018AK3.07) Knowledge of the reasons for the following responses or actions as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.5 / 45.6) Cross-connecting with backup systems</t>
-  </si>
-  <si>
-    <t>(295024EA2.08) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell radiation levels</t>
-  </si>
-  <si>
-    <t>(600000AK2.09) Knowledge of the relationship between the (APE 24) PLANT FIRE ON SITE and the following systems or components: (CFR: 41.7 / 45.7) Installed fire suppression systems</t>
-  </si>
-  <si>
-    <t>(295027EA1.02) Ability to operate and/or monitor the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.7 / 45.6) Containment ventilation/cooling</t>
-  </si>
-  <si>
-    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295023AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.5 / 45.6) Non-coincident SCRAM function</t>
-  </si>
-  <si>
-    <t>(295036EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Cause of the high water level</t>
-  </si>
-  <si>
-    <t>(295014AK2.14) Knowledge of the relationship between the (APE 14) INADVERTENT REACTIVITY ADDITION and the following systems or components: (CFR: 41.7 / 45.8) HPCS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295033EA1.04) Ability to operate and/or monitor the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.7 / 45.6) SGTS/FRVS </t>
-  </si>
-  <si>
-    <t>(295029) (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL (G2.4.14) EMERGENCY PROCEDURES / PLAN Knowledge of general guidelines for emergency and abnormal operating procedures usage (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295012AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 12) HIGH DRYWELL TEMPERATURE: (CFR: 41.5 / 45.6) Venting</t>
-  </si>
-  <si>
-    <t>(295002AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.8 to 41.10) Offgas flow changes</t>
-  </si>
-  <si>
-    <t>(262002) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) (G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(211000K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Nuclear boiler instrumentation</t>
-  </si>
-  <si>
-    <t>(300000K3.15) Knowledge of the effect that a loss or malfunction of the (SF8 IA) INSTRUMENT AIR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Fuel pool cooling cleanup system</t>
-  </si>
-  <si>
-    <t>(400000A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM including: (CFR: 41.5 / 45.5) CCW flow rate</t>
-  </si>
-  <si>
-    <t>(261000A2.12) Ability to (a) predict the impacts of the following on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High fuel pool ventilation radiation</t>
-  </si>
-  <si>
-    <t>(218000K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM: (CFR: 41.7 / 45.7) AC power</t>
-  </si>
-  <si>
-    <t>(259002A3.07) Ability to monitor automatic operation of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM including: (CFR: 41.7 / 45.7) FWRV lockup</t>
-  </si>
-  <si>
-    <t>(223002A4.08) Ability to manually operate and/or monitor the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF in the control room: (CFR: 41.7 / 45.5 to 45.8) Group isolations</t>
-  </si>
-  <si>
-    <t>(510000K4.07) Knowledge of (SF4 SWS*) SERVICE WATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Discharge strainer backwashing</t>
-  </si>
-  <si>
-    <t>(215004K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM : (CFR: 41.5 / 45.3) Detector operation</t>
-  </si>
-  <si>
-    <t>(262001K2.02) (SF6 AC) AC ELECTRICAL DISTRIBUTION Knowledge of electrical power supplies to the following: (CFR: 41.7) AC breaker control power</t>
-  </si>
-  <si>
-    <t>(217000) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM  (291007K1.04) DEMINERALIZERS AND ION EXCHANGERS (CFR: 41.3) Purpose of a demineralizer</t>
-  </si>
-  <si>
-    <t>(215005K1.18) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) OPRM</t>
-  </si>
-  <si>
-    <t>(263000K3.02) Knowledge of the effect that a loss or malfunction of the (SF6 DC) DC ELECTRICAL DISTRIBUTION will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Operationally significant systems using DC control power</t>
-  </si>
-  <si>
-    <t>(203000A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) including: (CFR: 41.5 / 45.5) System flow</t>
-  </si>
-  <si>
-    <t>(264000A2.09) Ability to (a) predict the impacts of the following on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of safety bus</t>
-  </si>
-  <si>
-    <t>(205000K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.7 / 45.7) AC electrical distribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(239002A3.02) Ability to monitor automatic operation of the (SF3 SRV) SAFETY RELIEF VALVES including: (CFR: 41.7 / 45.7) SRV operation on high reactor pressure </t>
-  </si>
-  <si>
-    <t>(209001A4.07) Ability to manually operate and/or monitor the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Keep fill pump</t>
-  </si>
-  <si>
-    <t>(215003K4.08) Knowledge of (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) SRMS-IRM overlap</t>
-  </si>
-  <si>
-    <t>(212000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 RPS) REACTOR PROTECTION SYSTEM : (CFR: 41.5 / 45.3) Logic channel arrangements</t>
-  </si>
-  <si>
-    <t>(209002K2.03) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Initiation logic</t>
-  </si>
-  <si>
-    <t>(262002) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) (G2.4.26) EMERGENCY PROCEDURES / PLAN Knowledge of facility protection requirements, including fire brigade and portable firefighting equipment usage (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(211000K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Leak detection system</t>
-  </si>
-  <si>
-    <t>(300000K3.19) Knowledge of the effect that a loss or malfunction of the (SF8 IA) INSTRUMENT AIR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Main steam system</t>
-  </si>
-  <si>
-    <t>(400000A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM including: (CFR: 41.5 / 45.5) Surge tank level</t>
-  </si>
-  <si>
-    <t>(271000K5.13) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 OG) OFFGAS SYSTEM: (CFR: 41.5 / 41.7 / 45.4) Offsite release rate</t>
-  </si>
-  <si>
-    <t>(223001K2.08) (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES Knowledge of electrical power supplies to the following: (CFR: 41.7) Containment cooling air handling units</t>
-  </si>
-  <si>
-    <t>(290001) (SF5 SC) SECONDARY CONTAINMENT (291006K1.03) HEAT EXCHANGERS AND CONDENSERS (CFR: 41.4) Basic heat transfer in a heat exchanger</t>
-  </si>
-  <si>
-    <t>(202002K1.08) Knowledge of the physical connections and/or cause and effect relationships between the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor feedwater system</t>
-  </si>
-  <si>
-    <t>(259001K3.03) Knowledge of the effect that a loss or malfunction of the (SF2 FWS) FEEDWATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) HPCI</t>
-  </si>
-  <si>
-    <t>(241000A1.26) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM including: (CFR: 41.5 / 45.5) Governor valve limit</t>
-  </si>
-  <si>
-    <t>(230000A2.07) Ability to (a) predict the impacts of the following on the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Emergency generator failure</t>
-  </si>
-  <si>
-    <t>(510001K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 CWS*) CIRCULATING WATER SYSTEM: (CFR: 41.7 / 45.7) Cooling tower level control valve malfunction</t>
-  </si>
-  <si>
-    <t>(204000A3.03) Ability to monitor automatic operation of the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM including: (CFR: 41.7 / 45.7) System isolations</t>
-  </si>
-  <si>
-    <t>(286000A4.04) Ability to manually operate and/or monitor the (SF8 FPS) FIRE PROTECTION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Fire main pressure</t>
-  </si>
-  <si>
-    <t>(268000K4.01) Knowledge of (SF9 RW) RADWASTE SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Automatic isolation of radiological release isolation valves</t>
-  </si>
-  <si>
-    <t>(G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+    <t>(295030EA1.07) Ability to operate and/or monitor the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) Plant process computer/parameter display systems</t>
+  </si>
+  <si>
+    <t>(295027EK3.04) Knowledge of the reasons for the following responses or actions as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.5 / 45.6) Hydrogen recombiners</t>
+  </si>
+  <si>
+    <t>(295005AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 5) MAIN TURBINE GENERATOR TRIP:(CFR: 41.8 to 41.10) Reactor pressure control</t>
+  </si>
+  <si>
+    <t>(295024EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295038EK2.12) Knowledge of the relationship between the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE and the following systems or components: (CFR: 41.7 / 45.8) Feedwater leakage control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295016AA1.05) Ability to operate and/or monitor the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.7 / 45.6) DC electrical distribution </t>
+  </si>
+  <si>
+    <t>(295026EK3.04) Knowledge of the reasons for the following responses or actions as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.5 / 45.6) SLCS injection</t>
+  </si>
+  <si>
+    <t>(295001AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.8 to 41.10) Thermal-hydraulic instabilities</t>
+  </si>
+  <si>
+    <t>(295025EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.1.46) CONDUCT OF OPERATIONS Ability to use integrated control systems to operate plant systems or components (CFR: 41.10/ 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(500000EA1.03) Ability to operate and/or monitor the following as they apply to (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.7 / 45.6) Containment atmosphere controls</t>
+  </si>
+  <si>
+    <t>(295009AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 9) LOW REACTOR WATER LEVEL: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(295020AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.8 to 41.10) Loss of normal heat sink</t>
+  </si>
+  <si>
+    <t>(295002AA2.04) Ability to determine and/or interpret the following as they apply to (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.10 / 43.5 / 45.13) Offgas system flow</t>
+  </si>
+  <si>
+    <t>(295013) (APE 13) HIGH SUPPRESSION POOL TEMPERATURE. (G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295007AK2.07) Knowledge of the relationship between the (APE 7) HIGH REACTOR PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) RPS</t>
+  </si>
+  <si>
+    <t>(262001K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 AC) AC ELECTRICAL DISTRIBUTION: (CFR: 41.7 / 45.7) Offsite power</t>
+  </si>
+  <si>
+    <t>(215005K2.01) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR Knowledge of electrical power supplies to the following: (CFR: 41.7) LPRM channels</t>
+  </si>
+  <si>
+    <t>(300000K5.13) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 IA) INSTRUMENT AIR SYSTEM: (CFR: 41.5 / 45.3) Low instrument air pressure</t>
+  </si>
+  <si>
+    <t>(211000A2.05) Ability to (a) predict the impacts of the following on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of SLCS tank heaters</t>
+  </si>
+  <si>
+    <t>(205000K4.07) Knowledge of (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) design features and/or interlocks that provide for the following: (CFR: 41.7) SDC minimum flow</t>
+  </si>
+  <si>
+    <t>(209001A3.02) Ability to monitor automatic operation of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.7 / 45.7) Pump start</t>
+  </si>
+  <si>
+    <t>(510000K3.15) Knowledge of the effect that a loss or malfunction of the (SF4 SWS*) SERVICE WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Service water system pressure</t>
+  </si>
+  <si>
+    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
+  </si>
+  <si>
+    <t>(209002K1.09) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Leak detection</t>
+  </si>
+  <si>
+    <t>(212000A4.04) Ability to manually operate and/or monitor the (SF7 RPS) REACTOR PROTECTION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Bypass SCRAM signals</t>
+  </si>
+  <si>
+    <t>(263000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 DC) DC ELECTRICAL DISTRIBUTION including: (CFR: 41.5 / 45.5) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(218000K6.06) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM: (CFR: 41.7 / 45.7) DC power</t>
+  </si>
+  <si>
+    <t>(239002K2.01) (SF3 SRV) SAFETY RELIEF VALVES Knowledge of electrical power supplies to the following: (CFR: 41.7) SRV solenoids</t>
+  </si>
+  <si>
+    <t>(217000K5.06) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) : (CFR: 41.5 / 45.3) Turbine operation</t>
+  </si>
+  <si>
+    <t>(259002A2.08) Ability to (a) predict the impacts of the following on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Receipt of an ECCS initiation signal: FWCI</t>
+  </si>
+  <si>
+    <t>(215004K4.01) Knowledge of (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Rod withdrawal blocks</t>
+  </si>
+  <si>
+    <t>(203000A3.01) Ability to monitor automatic operation of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) including: (CFR: 41.7 / 45.7) Valve operation</t>
+  </si>
+  <si>
+    <t>(264000K3.03) Knowledge of the effect that a loss or malfunction of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Operationally significant loads</t>
+  </si>
+  <si>
+    <t>(262002) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) (291002K1.16) SENSORS AND DETECTORS (CFR: 41.7) (POSITION DETECTORS) Failure modes of reed switches, LVDTs, limit switches, and potentiometers</t>
+  </si>
+  <si>
+    <t>(400000K1.20) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 to 41.9 / 45.6 to 45.8) Reactor/turbine pressure regulating system</t>
+  </si>
+  <si>
+    <t>(223002A4.07) Ability to manually operate and/or monitor the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF in the control room: (CFR: 41.7 / 45.5 to 45.8) Reset of system initiations</t>
+  </si>
+  <si>
+    <t>(261000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM including: (CFR: 41.5 / 45.5) Primary containment pressure</t>
+  </si>
+  <si>
+    <t>(262001K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 AC) AC ELECTRICAL DISTRIBUTION: (CFR: 41.7 / 45.7) Emergency generators</t>
+  </si>
+  <si>
+    <t>(215005K2.02) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR Knowledge of electrical power supplies to the following: (CFR: 41.7) APRM channels</t>
+  </si>
+  <si>
+    <t>(300000K5.15) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 IA) INSTRUMENT AIR SYSTEM: (CFR: 41.5 / 45.3) High moisture content in instrument air</t>
+  </si>
+  <si>
+    <t>(211000A2.02) Ability to (a) predict the impacts of the following on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Failure of squib valves to open</t>
+  </si>
+  <si>
+    <t>(271000A4.07) Ability to manually operate and/or monitor the (SF9 OG) OFFGAS SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) System differential pressures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(272000A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM including: (CFR: 41.5 / 45.5) Lights and alarms </t>
+  </si>
+  <si>
+    <t>(259001K6.10) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2 FWS) FEEDWATER SYSTEM: (CFR: 41.7 / 45.7) RFP turbine seal system: TDRFPs only</t>
+  </si>
+  <si>
+    <t>(233000K2.01) (SF9 FPCCU) FUEL POOL COOLING/CLEANUP Knowledge of electrical power supplies to the following: (CFR: 41.7) Fuel pool cooling pumps</t>
+  </si>
+  <si>
+    <t>(290003K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 CRV) CONTROL ROOM VENTILATION: (CFR: 41.5 / 45.3) Control room habitability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(290002A2.01) Ability to (a) predict the impacts of the following on the (SF4 RVI) REACTOR VESSEL INTERNALS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) LOCA </t>
+  </si>
+  <si>
+    <t>(241000K4.02) Knowledge of (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Turbine inlet pressure control</t>
+  </si>
+  <si>
+    <t>(201001A3.09) Ability to monitor automatic operation of the (SF1 CRDH) CRD HYDRAULIC SYSTEM including: (CFR: 41.1-2 / 41.5-7 / 41.9 / 45.1-6 / 45.8 / 45.12-13) Cooling water flow</t>
+  </si>
+  <si>
+    <t>(201003K3.05) Knowledge of the effect that a loss or malfunction of the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM will have on the following systems or system parameters: (CFR: 41.1-2 / 41.7 / 41.10 / 45.1-6 / 4) RCIS (BWR 6)</t>
+  </si>
+  <si>
+    <t>(288000) (SF9 PVS) PLANT VENTILATION SYSTEMS  (G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(223001K1.21) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Penetration cooling system</t>
   </si>
   <si>
     <t>(G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
   </si>
   <si>
-    <t>(G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
+    <t>(G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
   </si>
   <si>
     <t>(G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
@@ -235,135 +235,135 @@
     <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
   </si>
   <si>
-    <t>(G2.4.32) EMERGENCY PROCEDURES / PLAN Knowledge of operator response to loss of annunciators (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(292002K1.14) NEUTRON LIFE CYCLE (CFR: 41.1) Evaluate change in shutdown margin due to changes in plant parameters</t>
-  </si>
-  <si>
-    <t>(292007K1.03) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Given a curve of K-effective versus core age, state the reasons for maximum, minimum, and inflection points</t>
-  </si>
-  <si>
-    <t>(292001K1.02) NEUTRONS (CFR: 41.1) Define prompt and delayed neutrons</t>
-  </si>
-  <si>
-    <t>(293006K1.30) FLUID STATICS AND DYNAMICS (CFR: 41.14) Describe the methods of controlling system flow rates</t>
-  </si>
-  <si>
-    <t>(293008K1.01) THERMAL HYDRAULICS (CFR: 41.14) (BOILING HEAT TRANSFER) Distinguish between boiling processes and other heat transfer mechanisms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(293007K1.09) HEAT TRANSFER (CFR: 41.14) (CONDENSER APPLICATIONS OF HEAT TRANSFER) Discuss operational implications of condensate </t>
-  </si>
-  <si>
-    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.4.35) EMERGENCY PROCEDURES / PLAN Knowledge of nonlicensed operator responsibilities during an emergency (CFR: 41.10 / 43.1/ 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295005AA2.05) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
-  </si>
-  <si>
-    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
+    <t>(G2.4.45) EMERGENCY PROCEDURES / PLAN Ability to prioritize and interpret the significance of each annunciator or alarm (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
+  </si>
+  <si>
+    <t>(292001K1.04) NEUTRONS (CFR: 41.1) Describe neutron moderation</t>
+  </si>
+  <si>
+    <t>(292005K1.12) CONTROL RODS (CFR: 41.1) Describe effects of deep and shallow control rods on axial and radial flux distribution</t>
+  </si>
+  <si>
+    <t>(292007K1.01) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Define burnable poison and state its use in the reactor</t>
+  </si>
+  <si>
+    <t>(293007K1.08) HEAT TRANSFER (CFR: 41.14) (CONDENSER APPLICATIONS OF HEAT TRANSFER) List functions of the main condenser in a power plant</t>
+  </si>
+  <si>
+    <t>(293004K1.12) THERMODYNAMIC PROCESS (CFR: 41.14) (CONDENSERS) Describe the process of condensate depression (subcooling) and its effect on plant operation</t>
+  </si>
+  <si>
+    <t>(293009K1.20) CORE THERMAL LIMITS (CFR: 41.14) (MCPR) Describe the mode of fuel failure for CPR</t>
   </si>
   <si>
     <t>(295021AA2.07) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor recirculation flow</t>
   </si>
   <si>
-    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295026EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
-  </si>
-  <si>
-    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.2.37) EQUIPMENT CONTROL Ability to determine operability or availability of safety-related equipment (SRO Only) (CFR: 43.2 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295020) (APE 20) INADVERTENT CONTAINMENT ISOLATION (G2.4.2) EMERGENCY PROCEDURES / PLAN Knowledge of system setpoints, interlocks and automatic actions associated with emergency and abnormal operating procedure entry conditions (CFR: 41.7 / 45.7 / 45.8)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295007AA2.02) Ability to determine and/or interpret the following as they apply to (APE 7) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor power </t>
-  </si>
-  <si>
-    <t>(295035) (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE (G2.4.47) EMERGENCY PROCEDURES / PLAN Ability to diagnose and recognize trends in an accurate and timely manner using the appropriate control room reference material (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(218000A2.02) Ability to (a) predict the impacts of the following on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of coolant accident</t>
-  </si>
-  <si>
-    <t>(259002) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM (G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(223002A2.14) Ability to (a) predict the impacts of the following on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Reactor protection system failures</t>
-  </si>
-  <si>
-    <t>(510000) (SF4 SWS*) SERVICE WATER SYSTEM (G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(290003A2.04) Ability to (a) predict the impacts of the following on the (SF9 CRV) CONTROL ROOM VENTILATION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Initiation/failure of fire protection system</t>
-  </si>
-  <si>
-    <t>(233000) (SF9 FPCCU) FUEL POOL COOLING/CLEANUP (G2.4.37) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan implementing procedures (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(201005A2.01) Ability to (a) predict the impacts of the following on the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6 / 45.8) High flux (SRMS, IRM, APRM)</t>
-  </si>
-  <si>
-    <t>(G2.1.28) CONDUCT OF OPERATIONS Knowledge of the purpose and function of major system components and controls (CFR: 41.7)</t>
+    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.4.2) EMERGENCY PROCEDURES / PLAN Knowledge of system setpoints, interlocks and automatic actions associated with emergency and abnormal operating procedure entry conditions (CFR: 41.7 / 45.7 / 45.8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295019AA2.01) Ability to determine and/or interpret the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.10 / 43.5 / 45.13) Instrument air pressure </t>
+  </si>
+  <si>
+    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.4.16) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures implementation hierarchy and coordination with other support procedures or guidelines such as, operating procedures, abnormal operating procedures, or severe accident management guidelines (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(600000AA2.07) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Whether malfunction(s) are due to common-mode electrical failures</t>
+  </si>
+  <si>
+    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.4.3) EMERGENCY PROCEDURES / PLAN Ability to identify post-accident instrumentation (CFR: 41.6 / 45.4)</t>
+  </si>
+  <si>
+    <t>(295006AA2.02) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Control rod position</t>
+  </si>
+  <si>
+    <t>(295034EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.10 / 43.5 / 45.13) Ventilation radiation levels</t>
+  </si>
+  <si>
+    <t>(295036) (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL (G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295033EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.10 / 43.5 / 45.13) Emergency plan</t>
+  </si>
+  <si>
+    <t>(205000A2.02) Ability to (a) predict the impacts of the following on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Low shutdown cooling suction pressure</t>
+  </si>
+  <si>
+    <t>(209001) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM  (G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(510000A2.01) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Pump/motor failure</t>
+  </si>
+  <si>
+    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (G2.4.50) EMERGENCY PROCEDURES / PLAN Ability to verify system alarm setpoints and operate controls identified in the alarm response procedure (CFR: 41.10 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(209002A2.04) Ability to (a) predict the impacts of the following on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of AC electrical distribution</t>
+  </si>
+  <si>
+    <t>(202002) (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM (G2.4.52) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan, emergency plan implementing procedures, emergency operating procedures, or severe accident guidelines (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(510001A2.01) Ability to (a) predict the impacts of the following on the (SF8 CWS*) CIRCULATING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Pump/Motor failure</t>
+  </si>
+  <si>
+    <t>(245000) (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS (G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
   </si>
   <si>
     <t>(G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
   </si>
   <si>
-    <t>(G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.3) EMERGENCY PROCEDURES / PLAN Ability to identify post-accident instrumentation (CFR: 41.6 / 45.4)</t>
-  </si>
-  <si>
-    <t>(G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
+    <t>(G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+  </si>
+  <si>
+    <t>(G2.4.35) EMERGENCY PROCEDURES / PLAN Knowledge of nonlicensed operator responsibilities during an emergency (CFR: 41.10 / 43.1/ 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.4.25) EMERGENCY PROCEDURES / PLAN Knowledge of fire protection procedures (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>A2</t>
   </si>
   <si>
     <t>G</t>
   </si>
   <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
     <t>K3</t>
   </si>
   <si>
     <t>K1</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>K6</t>
   </si>
   <si>
+    <t>K5</t>
+  </si>
+  <si>
+    <t>K4</t>
+  </si>
+  <si>
     <t>A3</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>K4</t>
-  </si>
-  <si>
-    <t>K5</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
     <t>295030</t>
   </si>
   <si>
+    <t>295027</t>
+  </si>
+  <si>
     <t>295005</t>
   </si>
   <si>
+    <t>295024</t>
+  </si>
+  <si>
     <t>295031</t>
   </si>
   <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295003</t>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295016</t>
   </si>
   <si>
     <t>295026</t>
   </si>
   <si>
+    <t>295001</t>
+  </si>
+  <si>
     <t>295025</t>
   </si>
   <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
     <t>295004</t>
   </si>
   <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295023</t>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>295009</t>
+  </si>
+  <si>
+    <t>295020</t>
+  </si>
+  <si>
+    <t>295002</t>
+  </si>
+  <si>
+    <t>295013</t>
+  </si>
+  <si>
+    <t>295007</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>271000</t>
+  </si>
+  <si>
+    <t>272000</t>
+  </si>
+  <si>
+    <t>259001</t>
+  </si>
+  <si>
+    <t>233000</t>
+  </si>
+  <si>
+    <t>290003</t>
+  </si>
+  <si>
+    <t>290002</t>
+  </si>
+  <si>
+    <t>241000</t>
+  </si>
+  <si>
+    <t>201001</t>
+  </si>
+  <si>
+    <t>201003</t>
+  </si>
+  <si>
+    <t>288000</t>
+  </si>
+  <si>
+    <t>223001</t>
+  </si>
+  <si>
+    <t>292001</t>
+  </si>
+  <si>
+    <t>292005</t>
+  </si>
+  <si>
+    <t>292007</t>
+  </si>
+  <si>
+    <t>293007</t>
+  </si>
+  <si>
+    <t>293004</t>
+  </si>
+  <si>
+    <t>293009</t>
+  </si>
+  <si>
+    <t>295034</t>
   </si>
   <si>
     <t>295036</t>
   </si>
   <si>
-    <t>295014</t>
-  </si>
-  <si>
     <t>295033</t>
   </si>
   <si>
-    <t>295029</t>
-  </si>
-  <si>
-    <t>295012</t>
-  </si>
-  <si>
-    <t>295002</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>271000</t>
-  </si>
-  <si>
-    <t>223001</t>
-  </si>
-  <si>
-    <t>290001</t>
-  </si>
-  <si>
     <t>202002</t>
   </si>
   <si>
-    <t>259001</t>
-  </si>
-  <si>
-    <t>241000</t>
-  </si>
-  <si>
-    <t>230000</t>
-  </si>
-  <si>
     <t>510001</t>
   </si>
   <si>
-    <t>204000</t>
-  </si>
-  <si>
-    <t>286000</t>
-  </si>
-  <si>
-    <t>268000</t>
-  </si>
-  <si>
-    <t>292002</t>
-  </si>
-  <si>
-    <t>292007</t>
-  </si>
-  <si>
-    <t>292001</t>
-  </si>
-  <si>
-    <t>293006</t>
-  </si>
-  <si>
-    <t>293008</t>
-  </si>
-  <si>
-    <t>293007</t>
-  </si>
-  <si>
-    <t>295020</t>
-  </si>
-  <si>
-    <t>295007</t>
-  </si>
-  <si>
-    <t>295035</t>
-  </si>
-  <si>
-    <t>290003</t>
-  </si>
-  <si>
-    <t>233000</t>
-  </si>
-  <si>
-    <t>201005</t>
+    <t>245000</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>2.6</v>
+        <v>4.6</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>4.3</v>
+        <v>2.9</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,7 +1443,7 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="D29" t="s">
         <v>107</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D32" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="D33" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D34" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="D35" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,7 +1579,7 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="D37" t="s">
         <v>115</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="D38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,7 +1630,7 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D40" t="s">
         <v>107</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="D41" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1667,7 +1667,7 @@
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="D43" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="D45" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="D46" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,7 +1766,7 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D48" t="s">
         <v>115</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="D49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="D50" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,7 +1817,7 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="D51" t="s">
         <v>107</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="D52" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="D53" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,7 +1868,7 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="D54" t="s">
         <v>115</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="D55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="D56" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,7 +1919,7 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="D57" t="s">
         <v>107</v>
@@ -1939,7 +1939,7 @@
         <v>3.7</v>
       </c>
       <c r="D58" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>2.6</v>
+        <v>4.6</v>
       </c>
       <c r="D59" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D60" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="D61" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D62" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="D63" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="D64" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,7 +2259,7 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="D77" t="s">
         <v>105</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="D78" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,7 +2293,7 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D79" t="s">
         <v>105</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="D80" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,7 +2327,7 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="s">
         <v>105</v>
@@ -2347,7 +2347,7 @@
         <v>3.9</v>
       </c>
       <c r="D82" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,7 +2361,7 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="D83" t="s">
         <v>105</v>
@@ -2378,7 +2378,7 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="D84" t="s">
         <v>105</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="D85" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,7 +2412,7 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="D86" t="s">
         <v>105</v>
@@ -2429,7 +2429,7 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="D87" t="s">
         <v>105</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="D88" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,7 +2463,7 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D89" t="s">
         <v>105</v>
@@ -2483,7 +2483,7 @@
         <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,7 +2497,7 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D91" t="s">
         <v>105</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,7 +2531,7 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="D93" t="s">
         <v>105</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="D94" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
